--- a/Docs/LymphaticVesselTesterDaughterBoard_BOM.xlsx
+++ b/Docs/LymphaticVesselTesterDaughterBoard_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Lymphatic Vessel Tester Daughter Board</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,11 +766,9 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
